--- a/C++/Tutoring/Tool/TutoringTool/TutoringTool/ExcelData/CodingQuestions.xlsx
+++ b/C++/Tutoring/Tool/TutoringTool/TutoringTool/ExcelData/CodingQuestions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Unversity-ComputerScience\C++\Tutoring\TutorCode\server\backend\excel-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Unversity-ComputerScience\C++\Tutoring\Tool\TutoringTool\TutoringTool\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B440DDA9-822D-4D03-9DD8-9927F700832B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BE2C6D-007E-47D1-8A0A-2DB20E6F3132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>Create a functions that returns the string called "Computer"</t>
   </si>
   <si>
     <t>Computer</t>
+  </si>
+  <si>
+    <t>Write a program that declares an integer variable, assigns it a value, then declares a pointer to that variable. Print both the value of the variable and the value pointed to by the pointer</t>
   </si>
 </sst>
 </file>
@@ -348,20 +351,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="152.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -372,6 +374,30 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
